--- a/ozone/multistate/train_ozone_VTZP_MS_2_energies.xlsx
+++ b/ozone/multistate/train_ozone_VTZP_MS_2_energies.xlsx
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.5819761155580736</v>
+        <v>-0.5819806912695524</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.5818693041801453</v>
+        <v>-0.5806262493133545</v>
       </c>
       <c r="F2" t="n">
         <v>-225.2161521</v>
@@ -499,7 +499,7 @@
         <v>-224.63417269</v>
       </c>
       <c r="H2" t="n">
-        <v>-225.2160419941802</v>
+        <v>-225.2147989393134</v>
       </c>
     </row>
     <row r="3">
@@ -519,10 +519,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.5880039776857022</v>
+        <v>-0.5880134173440135</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5892496109008789</v>
+        <v>-0.5881714820861816</v>
       </c>
       <c r="F3" t="n">
         <v>-225.19615424</v>
@@ -531,7 +531,7 @@
         <v>-224.60814276</v>
       </c>
       <c r="H3" t="n">
-        <v>-225.1973923709009</v>
+        <v>-225.1963142420862</v>
       </c>
     </row>
     <row r="4">
@@ -554,7 +554,7 @@
         <v>-0.5801180824230383</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5801569223403931</v>
+        <v>-0.5816978216171265</v>
       </c>
       <c r="F4" t="n">
         <v>-225.22079256</v>
@@ -563,7 +563,7 @@
         <v>-224.64067331</v>
       </c>
       <c r="H4" t="n">
-        <v>-225.2208302323404</v>
+        <v>-225.2223711316171</v>
       </c>
     </row>
     <row r="5">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.5837406037778223</v>
+        <v>-0.5837389417572378</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.583457350730896</v>
+        <v>-0.5854187607765198</v>
       </c>
       <c r="F5" t="n">
         <v>-225.21084358</v>
@@ -595,7 +595,7 @@
         <v>-224.62710641</v>
       </c>
       <c r="H5" t="n">
-        <v>-225.2105637607309</v>
+        <v>-225.2125251707765</v>
       </c>
     </row>
     <row r="6">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.5825406264373243</v>
+        <v>-0.5825562946756372</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.5793599486351013</v>
+        <v>-0.5808560848236084</v>
       </c>
       <c r="F6" t="n">
         <v>-225.21449228</v>
@@ -627,7 +627,7 @@
         <v>-224.63193633</v>
       </c>
       <c r="H6" t="n">
-        <v>-225.2112962786351</v>
+        <v>-225.2127924148236</v>
       </c>
     </row>
     <row r="7">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.5860125005016297</v>
+        <v>-0.5860141120613811</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.5847564935684204</v>
+        <v>-0.5848228931427002</v>
       </c>
       <c r="F7" t="n">
         <v>-225.2031702</v>
@@ -659,7 +659,7 @@
         <v>-224.61715561</v>
       </c>
       <c r="H7" t="n">
-        <v>-225.2019121035684</v>
+        <v>-225.2019785031427</v>
       </c>
     </row>
     <row r="8">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.5978006439209578</v>
+        <v>-0.5978174619938317</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.597623348236084</v>
+        <v>-0.6015797257423401</v>
       </c>
       <c r="F8" t="n">
         <v>-225.17434477</v>
@@ -691,7 +691,7 @@
         <v>-224.57652924</v>
       </c>
       <c r="H8" t="n">
-        <v>-225.1741525882361</v>
+        <v>-225.1781089657424</v>
       </c>
     </row>
     <row r="9">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.5691851309156786</v>
+        <v>-0.5691797587716785</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5721578598022461</v>
+        <v>-0.5688080787658691</v>
       </c>
       <c r="F9" t="n">
         <v>-225.22698977</v>
@@ -723,7 +723,7 @@
         <v>-224.65781271</v>
       </c>
       <c r="H9" t="n">
-        <v>-225.2299705698022</v>
+        <v>-225.2266207887659</v>
       </c>
     </row>
     <row r="10">
@@ -746,7 +746,7 @@
         <v>-0.591855596724448</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5933660268783569</v>
+        <v>-0.5929095149040222</v>
       </c>
       <c r="F10" t="n">
         <v>-225.19197533</v>
@@ -755,7 +755,7 @@
         <v>-224.60012183</v>
       </c>
       <c r="H10" t="n">
-        <v>-225.1934878568784</v>
+        <v>-225.193031344904</v>
       </c>
     </row>
     <row r="11">
@@ -778,7 +778,7 @@
         <v>-0.6019715727008661</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5992934703826904</v>
+        <v>-0.6008607149124146</v>
       </c>
       <c r="F11" t="n">
         <v>-225.1686007</v>
@@ -787,7 +787,7 @@
         <v>-224.56662782</v>
       </c>
       <c r="H11" t="n">
-        <v>-225.1659212903827</v>
+        <v>-225.1674885349124</v>
       </c>
     </row>
     <row r="12">
@@ -810,7 +810,7 @@
         <v>-0.5769497350004474</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5786839127540588</v>
+        <v>-0.5754928588867188</v>
       </c>
       <c r="F12" t="n">
         <v>-225.22500721</v>
@@ -819,7 +819,7 @@
         <v>-224.64805649</v>
       </c>
       <c r="H12" t="n">
-        <v>-225.226740402754</v>
+        <v>-225.2235493488867</v>
       </c>
     </row>
     <row r="13">
@@ -842,7 +842,7 @@
         <v>-0.5971821387240138</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.5969525575637817</v>
+        <v>-0.599702000617981</v>
       </c>
       <c r="F13" t="n">
         <v>-225.17575036</v>
@@ -851,7 +851,7 @@
         <v>-224.57856706</v>
       </c>
       <c r="H13" t="n">
-        <v>-225.1755196175638</v>
+        <v>-225.178269060618</v>
       </c>
     </row>
     <row r="14">
@@ -874,7 +874,7 @@
         <v>-0.5774681621544424</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.5790637731552124</v>
+        <v>-0.5765789747238159</v>
       </c>
       <c r="F14" t="n">
         <v>-225.22472532</v>
@@ -883,7 +883,7 @@
         <v>-224.64725833</v>
       </c>
       <c r="H14" t="n">
-        <v>-225.2263221031552</v>
+        <v>-225.2238373047238</v>
       </c>
     </row>
     <row r="15">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-0.5691660086649371</v>
+        <v>-0.5691615050047767</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.5712707042694092</v>
+        <v>-0.569090723991394</v>
       </c>
       <c r="F15" t="n">
         <v>-225.22855588</v>
@@ -915,7 +915,7 @@
         <v>-224.65939302</v>
       </c>
       <c r="H15" t="n">
-        <v>-225.2306637242694</v>
+        <v>-225.2284837439914</v>
       </c>
     </row>
     <row r="16">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-0.582935985478527</v>
+        <v>-0.5829437024505391</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.5797346830368042</v>
+        <v>-0.5831480622291565</v>
       </c>
       <c r="F16" t="n">
         <v>-225.21332312</v>
@@ -947,7 +947,7 @@
         <v>-224.63037779</v>
       </c>
       <c r="H16" t="n">
-        <v>-225.2101124730368</v>
+        <v>-225.2135258522292</v>
       </c>
     </row>
     <row r="17">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.5988185479584566</v>
+        <v>-0.5988241854345686</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.5980522632598877</v>
+        <v>-0.6010080575942993</v>
       </c>
       <c r="F17" t="n">
         <v>-225.17240247</v>
@@ -979,7 +979,7 @@
         <v>-224.57357686</v>
       </c>
       <c r="H17" t="n">
-        <v>-225.1716291232599</v>
+        <v>-225.1745849175943</v>
       </c>
     </row>
     <row r="18">
@@ -999,10 +999,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.5868745050117377</v>
+        <v>-0.5868832637842621</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.5880189538002014</v>
+        <v>-0.5893864631652832</v>
       </c>
       <c r="F18" t="n">
         <v>-225.2001191</v>
@@ -1011,7 +1011,7 @@
         <v>-224.61323439</v>
       </c>
       <c r="H18" t="n">
-        <v>-225.2012533438002</v>
+        <v>-225.2026208531653</v>
       </c>
     </row>
     <row r="19">
@@ -1034,7 +1034,7 @@
         <v>-0.57781094607924</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.5758181810379028</v>
+        <v>-0.5764572620391846</v>
       </c>
       <c r="F19" t="n">
         <v>-225.22443767</v>
@@ -1043,7 +1043,7 @@
         <v>-224.64662448</v>
       </c>
       <c r="H19" t="n">
-        <v>-225.2224426610379</v>
+        <v>-225.2230817420392</v>
       </c>
     </row>
     <row r="20">
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.6028707509085871</v>
+        <v>-0.6028798355339953</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.6020908951759338</v>
+        <v>-0.5986557006835938</v>
       </c>
       <c r="F20" t="n">
         <v>-225.16806254</v>
@@ -1075,7 +1075,7 @@
         <v>-224.56518467</v>
       </c>
       <c r="H20" t="n">
-        <v>-225.1672755651759</v>
+        <v>-225.1638403706836</v>
       </c>
     </row>
     <row r="21">
@@ -1095,10 +1095,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-0.5991773199828747</v>
+        <v>-0.5991812032572454</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.6004492044448853</v>
+        <v>-0.6004096865653992</v>
       </c>
       <c r="F21" t="n">
         <v>-225.17180693</v>
@@ -1107,7 +1107,7 @@
         <v>-224.57262648</v>
       </c>
       <c r="H21" t="n">
-        <v>-225.1730756844449</v>
+        <v>-225.1730361665654</v>
       </c>
     </row>
     <row r="22">
@@ -1127,10 +1127,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-0.5691937128301227</v>
+        <v>-0.5691878637883226</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.5708342790603638</v>
+        <v>-0.5678001642227173</v>
       </c>
       <c r="F22" t="n">
         <v>-225.22617711</v>
@@ -1139,7 +1139,7 @@
         <v>-224.65699062</v>
       </c>
       <c r="H22" t="n">
-        <v>-225.2278248990604</v>
+        <v>-225.2247907842227</v>
       </c>
     </row>
     <row r="23">
@@ -1162,7 +1162,7 @@
         <v>-0.5911265616659216</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.5925696492195129</v>
+        <v>-0.5914894342422485</v>
       </c>
       <c r="F23" t="n">
         <v>-225.19446453</v>
@@ -1171,7 +1171,7 @@
         <v>-224.60334052</v>
       </c>
       <c r="H23" t="n">
-        <v>-225.1959101692195</v>
+        <v>-225.1948299542422</v>
       </c>
     </row>
     <row r="24">
@@ -1191,10 +1191,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-0.6069295101483738</v>
+        <v>-0.6069314013355609</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.6019532680511475</v>
+        <v>-0.6005009412765503</v>
       </c>
       <c r="F24" t="n">
         <v>-225.16803081</v>
@@ -1203,7 +1203,7 @@
         <v>-224.56109751</v>
       </c>
       <c r="H24" t="n">
-        <v>-225.1630507780511</v>
+        <v>-225.1615984512765</v>
       </c>
     </row>
     <row r="25">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.5812234073639431</v>
+        <v>-0.5812239040818883</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.5812702178955078</v>
+        <v>-0.5818365812301636</v>
       </c>
       <c r="F25" t="n">
         <v>-225.21817965</v>
@@ -1235,7 +1235,7 @@
         <v>-224.6369554</v>
       </c>
       <c r="H25" t="n">
-        <v>-225.2182256178955</v>
+        <v>-225.2187919812302</v>
       </c>
     </row>
     <row r="26">
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>-0.5691568886923901</v>
+        <v>-0.5691535475201985</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.5688971281051636</v>
+        <v>-0.5670080184936523</v>
       </c>
       <c r="F26" t="n">
         <v>-225.23075283</v>
@@ -1267,7 +1267,7 @@
         <v>-224.66159912</v>
       </c>
       <c r="H26" t="n">
-        <v>-225.2304962481052</v>
+        <v>-225.2286071384937</v>
       </c>
     </row>
     <row r="27">
@@ -1287,10 +1287,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-0.581405135104608</v>
+        <v>-0.5814109693470991</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.5828295946121216</v>
+        <v>-0.5832493305206299</v>
       </c>
       <c r="F27" t="n">
         <v>-225.21769363</v>
@@ -1299,7 +1299,7 @@
         <v>-224.63628166</v>
       </c>
       <c r="H27" t="n">
-        <v>-225.2191112546121</v>
+        <v>-225.2195309905206</v>
       </c>
     </row>
     <row r="28">
@@ -1322,7 +1322,7 @@
         <v>-0.592835564371222</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.592711329460144</v>
+        <v>-0.5928186178207397</v>
       </c>
       <c r="F28" t="n">
         <v>-225.18862315</v>
@@ -1331,7 +1331,7 @@
         <v>-224.5957844</v>
       </c>
       <c r="H28" t="n">
-        <v>-225.1884957294602</v>
+        <v>-225.1886030178208</v>
       </c>
     </row>
     <row r="29">
@@ -1351,10 +1351,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-0.569164291873379</v>
+        <v>-0.5691621668801959</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.5701162815093994</v>
+        <v>-0.5696848630905151</v>
       </c>
       <c r="F29" t="n">
         <v>-225.23338218</v>
@@ -1363,7 +1363,7 @@
         <v>-224.66421934</v>
       </c>
       <c r="H29" t="n">
-        <v>-225.2343356215094</v>
+        <v>-225.2339042030905</v>
       </c>
     </row>
     <row r="30">
@@ -1383,10 +1383,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-0.5766176578621406</v>
+        <v>-0.5766082701960105</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.5748233199119568</v>
+        <v>-0.5785218477249146</v>
       </c>
       <c r="F30" t="n">
         <v>-225.22509179</v>
@@ -1395,7 +1395,7 @@
         <v>-224.64848371</v>
       </c>
       <c r="H30" t="n">
-        <v>-225.223307029912</v>
+        <v>-225.2270055577249</v>
       </c>
     </row>
     <row r="31">
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-0.5764441113127923</v>
+        <v>-0.5764368195848724</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.5749974250793457</v>
+        <v>-0.5771386623382568</v>
       </c>
       <c r="F31" t="n">
         <v>-225.22510217</v>
@@ -1427,7 +1427,7 @@
         <v>-224.64866503</v>
       </c>
       <c r="H31" t="n">
-        <v>-225.2236624550793</v>
+        <v>-225.2258036923382</v>
       </c>
     </row>
     <row r="32">
@@ -1447,10 +1447,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>-0.5984734862757444</v>
+        <v>-0.5984807086314601</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.5978695154190063</v>
+        <v>-0.600579559803009</v>
       </c>
       <c r="F32" t="n">
         <v>-225.17302525</v>
@@ -1459,7 +1459,7 @@
         <v>-224.57454518</v>
       </c>
       <c r="H32" t="n">
-        <v>-225.172414695419</v>
+        <v>-225.175124739803</v>
       </c>
     </row>
     <row r="33">
@@ -1479,10 +1479,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-0.583135022520906</v>
+        <v>-0.5831426661327835</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.5813874006271362</v>
+        <v>-0.5844810009002686</v>
       </c>
       <c r="F33" t="n">
         <v>-225.2127205</v>
@@ -1491,7 +1491,7 @@
         <v>-224.62957877</v>
       </c>
       <c r="H33" t="n">
-        <v>-225.2109661706271</v>
+        <v>-225.2140597709003</v>
       </c>
     </row>
     <row r="34">
@@ -1511,10 +1511,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-0.5691902915189337</v>
+        <v>-0.5691888387328539</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.5691145062446594</v>
+        <v>-0.5675530433654785</v>
       </c>
       <c r="F34" t="n">
         <v>-225.23511753</v>
@@ -1523,7 +1523,7 @@
         <v>-224.66593067</v>
       </c>
       <c r="H34" t="n">
-        <v>-225.2350451762447</v>
+        <v>-225.2334837133655</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1546,7 @@
         <v>-0.5913689809375274</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.5924569368362427</v>
+        <v>-0.5930812358856201</v>
       </c>
       <c r="F35" t="n">
         <v>-225.19363825</v>
@@ -1555,7 +1555,7 @@
         <v>-224.60227175</v>
       </c>
       <c r="H35" t="n">
-        <v>-225.1947286868362</v>
+        <v>-225.1953529858856</v>
       </c>
     </row>
     <row r="36">
@@ -1575,10 +1575,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-0.5875490232733556</v>
+        <v>-0.5875581985891016</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.5895004868507385</v>
+        <v>-0.5894970893859863</v>
       </c>
       <c r="F36" t="n">
         <v>-225.19775797</v>
@@ -1587,7 +1587,7 @@
         <v>-224.61020276</v>
       </c>
       <c r="H36" t="n">
-        <v>-225.1997032468507</v>
+        <v>-225.199699849386</v>
       </c>
     </row>
     <row r="37">
@@ -1610,7 +1610,7 @@
         <v>-0.5906390792110008</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.5922044515609741</v>
+        <v>-0.5934693217277527</v>
       </c>
       <c r="F37" t="n">
         <v>-225.19610436</v>
@@ -1619,7 +1619,7 @@
         <v>-224.60546389</v>
       </c>
       <c r="H37" t="n">
-        <v>-225.197668341561</v>
+        <v>-225.1989332117278</v>
       </c>
     </row>
     <row r="38">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-0.5691635664222392</v>
+        <v>-0.5691594739471777</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.5716879963874817</v>
+        <v>-0.5671364665031433</v>
       </c>
       <c r="F38" t="n">
         <v>-225.22930882</v>
@@ -1651,7 +1651,7 @@
         <v>-224.66015078</v>
       </c>
       <c r="H38" t="n">
-        <v>-225.2318387763875</v>
+        <v>-225.2272872465032</v>
       </c>
     </row>
     <row r="39">
@@ -1671,10 +1671,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-0.5821585368734917</v>
+        <v>-0.5821670339394809</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.5827175974845886</v>
+        <v>-0.5796259641647339</v>
       </c>
       <c r="F39" t="n">
         <v>-225.21561161</v>
@@ -1683,7 +1683,7 @@
         <v>-224.63344101</v>
       </c>
       <c r="H39" t="n">
-        <v>-225.2161586074846</v>
+        <v>-225.2130669741647</v>
       </c>
     </row>
     <row r="40">
@@ -1703,10 +1703,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-0.5946251931534232</v>
+        <v>-0.5946263992272469</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.5951796770095825</v>
+        <v>-0.591486394405365</v>
       </c>
       <c r="F40" t="n">
         <v>-225.18278067</v>
@@ -1715,7 +1715,7 @@
         <v>-224.58815243</v>
       </c>
       <c r="H40" t="n">
-        <v>-225.1833321070096</v>
+        <v>-225.1796388244054</v>
       </c>
     </row>
     <row r="41">
@@ -1738,7 +1738,7 @@
         <v>-0.5785130990291638</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.5735185146331787</v>
+        <v>-0.5747957229614258</v>
       </c>
       <c r="F41" t="n">
         <v>-225.22363381</v>
@@ -1747,7 +1747,7 @@
         <v>-224.64512226</v>
       </c>
       <c r="H41" t="n">
-        <v>-225.2186407746332</v>
+        <v>-225.2199179829614</v>
       </c>
     </row>
     <row r="42">
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-0.5866559244771055</v>
+        <v>-0.5866645513065385</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.5874528884887695</v>
+        <v>-0.5884202718734741</v>
       </c>
       <c r="F42" t="n">
         <v>-225.20089275</v>
@@ -1779,7 +1779,7 @@
         <v>-224.61422804</v>
       </c>
       <c r="H42" t="n">
-        <v>-225.2016809284888</v>
+        <v>-225.2026483118735</v>
       </c>
     </row>
     <row r="43">
@@ -1799,10 +1799,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-0.5691599129609524</v>
+        <v>-0.5691575103038266</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.5698930025100708</v>
+        <v>-0.568218469619751</v>
       </c>
       <c r="F43" t="n">
         <v>-225.23275775</v>
@@ -1811,7 +1811,7 @@
         <v>-224.66359969</v>
       </c>
       <c r="H43" t="n">
-        <v>-225.2334926925101</v>
+        <v>-225.2318181596198</v>
       </c>
     </row>
     <row r="44">
@@ -1834,7 +1834,7 @@
         <v>-0.569316352445155</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.5698482990264893</v>
+        <v>-0.5712605714797974</v>
       </c>
       <c r="F44" t="n">
         <v>-225.21899888</v>
@@ -1843,7 +1843,7 @@
         <v>-224.64968093</v>
       </c>
       <c r="H44" t="n">
-        <v>-225.2195292290265</v>
+        <v>-225.2209415014798</v>
       </c>
     </row>
     <row r="45">
@@ -1863,10 +1863,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-0.5862212783125661</v>
+        <v>-0.5862296431613103</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.5844690799713135</v>
+        <v>-0.5869106650352478</v>
       </c>
       <c r="F45" t="n">
         <v>-225.20241882</v>
@@ -1875,7 +1875,7 @@
         <v>-224.61618915</v>
       </c>
       <c r="H45" t="n">
-        <v>-225.2006582299713</v>
+        <v>-225.2030998150352</v>
       </c>
     </row>
     <row r="46">
@@ -1898,7 +1898,7 @@
         <v>-0.5933375244669022</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.5970157384872437</v>
+        <v>-0.5936813354492188</v>
       </c>
       <c r="F46" t="n">
         <v>-225.1869436</v>
@@ -1907,7 +1907,7 @@
         <v>-224.59360416</v>
       </c>
       <c r="H46" t="n">
-        <v>-225.1906198984873</v>
+        <v>-225.1872854954492</v>
       </c>
     </row>
     <row r="47">
@@ -1927,10 +1927,10 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-0.6007147169182568</v>
+        <v>-0.6007099035391521</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.5978502035140991</v>
+        <v>-0.6037895679473877</v>
       </c>
       <c r="F47" t="n">
         <v>-225.16974595</v>
@@ -1939,7 +1939,7 @@
         <v>-224.56903925</v>
       </c>
       <c r="H47" t="n">
-        <v>-225.1668894535141</v>
+        <v>-225.1728288179474</v>
       </c>
     </row>
     <row r="48">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.6063835857566455</v>
+        <v>-0.6063862421869068</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.6010480523109436</v>
+        <v>-0.6025274991989136</v>
       </c>
       <c r="F48" t="n">
         <v>-225.1678322</v>
@@ -1971,7 +1971,7 @@
         <v>-224.56144097</v>
       </c>
       <c r="H48" t="n">
-        <v>-225.162489022311</v>
+        <v>-225.1639684691989</v>
       </c>
     </row>
     <row r="49">
@@ -1994,7 +1994,7 @@
         <v>-0.5786861460858184</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.5732484459877014</v>
+        <v>-0.5742276906967163</v>
       </c>
       <c r="F49" t="n">
         <v>-225.22338689</v>
@@ -2003,7 +2003,7 @@
         <v>-224.64469931</v>
       </c>
       <c r="H49" t="n">
-        <v>-225.2179477559877</v>
+        <v>-225.2189270006967</v>
       </c>
     </row>
     <row r="50">
@@ -2023,10 +2023,10 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-0.5839368023428448</v>
+        <v>-0.5839374952814731</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.5836012363433838</v>
+        <v>-0.5840627551078796</v>
       </c>
       <c r="F50" t="n">
         <v>-225.21019564</v>
@@ -2035,7 +2035,7 @@
         <v>-224.62625769</v>
       </c>
       <c r="H50" t="n">
-        <v>-225.2098589263434</v>
+        <v>-225.2103204451079</v>
       </c>
     </row>
     <row r="51">
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>-0.5951616859768805</v>
+        <v>-0.5951615810432701</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.596951961517334</v>
+        <v>-0.5931707620620728</v>
       </c>
       <c r="F51" t="n">
         <v>-225.18114847</v>
@@ -2067,7 +2067,7 @@
         <v>-224.58598443</v>
       </c>
       <c r="H51" t="n">
-        <v>-225.1829363915173</v>
+        <v>-225.1791551920621</v>
       </c>
     </row>
     <row r="52">
@@ -2090,7 +2090,7 @@
         <v>-0.5806701066989246</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.5797504782676697</v>
+        <v>-0.5783225893974304</v>
       </c>
       <c r="F52" t="n">
         <v>-225.21955383</v>
@@ -2099,7 +2099,7 @@
         <v>-224.63888532</v>
       </c>
       <c r="H52" t="n">
-        <v>-225.2186357982677</v>
+        <v>-225.2172079093974</v>
       </c>
     </row>
     <row r="53">
@@ -2122,7 +2122,7 @@
         <v>-0.5916067181365736</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.5945453643798828</v>
+        <v>-0.5926352739334106</v>
       </c>
       <c r="F53" t="n">
         <v>-225.19280832</v>
@@ -2131,7 +2131,7 @@
         <v>-224.60119867</v>
       </c>
       <c r="H53" t="n">
-        <v>-225.1957440343799</v>
+        <v>-225.1938339439334</v>
       </c>
     </row>
     <row r="54">
@@ -2154,7 +2154,7 @@
         <v>-0.5959945511100635</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5963460206985474</v>
+        <v>-0.595232367515564</v>
       </c>
       <c r="F54" t="n">
         <v>-225.17876221</v>
@@ -2163,7 +2163,7 @@
         <v>-224.58276401</v>
       </c>
       <c r="H54" t="n">
-        <v>-225.1791100306986</v>
+        <v>-225.1779963775156</v>
       </c>
     </row>
     <row r="55">
@@ -2183,10 +2183,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>-0.6043140489158492</v>
+        <v>-0.6043201669459433</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6019052267074585</v>
+        <v>-0.6054945588111877</v>
       </c>
       <c r="F55" t="n">
         <v>-225.16763139</v>
@@ -2195,7 +2195,7 @@
         <v>-224.56331074</v>
       </c>
       <c r="H55" t="n">
-        <v>-225.1652159667074</v>
+        <v>-225.1688052988112</v>
       </c>
     </row>
     <row r="56">
@@ -2215,10 +2215,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-0.5954374821614681</v>
+        <v>-0.5954369398675794</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5961350202560425</v>
+        <v>-0.5943541526794434</v>
       </c>
       <c r="F56" t="n">
         <v>-225.18034371</v>
@@ -2227,7 +2227,7 @@
         <v>-224.58490579</v>
       </c>
       <c r="H56" t="n">
-        <v>-225.181040810256</v>
+        <v>-225.1792599426794</v>
       </c>
     </row>
     <row r="57">
@@ -2247,10 +2247,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-0.5870968383465762</v>
+        <v>-0.5871057372628896</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5889898538589478</v>
+        <v>-0.5879680514335632</v>
       </c>
       <c r="F57" t="n">
         <v>-225.19933841</v>
@@ -2259,7 +2259,7 @@
         <v>-224.61223201</v>
       </c>
       <c r="H57" t="n">
-        <v>-225.201221863859</v>
+        <v>-225.2002000614336</v>
       </c>
     </row>
     <row r="58">
@@ -2279,10 +2279,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-0.5975001612950142</v>
+        <v>-0.5974974112495667</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.5971373915672302</v>
+        <v>-0.6007011532783508</v>
       </c>
       <c r="F58" t="n">
         <v>-225.17503771</v>
@@ -2291,7 +2291,7 @@
         <v>-224.57754208</v>
       </c>
       <c r="H58" t="n">
-        <v>-225.1746794715672</v>
+        <v>-225.1782432332784</v>
       </c>
     </row>
     <row r="59">
@@ -2311,10 +2311,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>-0.5887014080524066</v>
+        <v>-0.5887112101047594</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5915229320526123</v>
+        <v>-0.5910054445266724</v>
       </c>
       <c r="F59" t="n">
         <v>-225.19371126</v>
@@ -2323,7 +2323,7 @@
         <v>-224.60499982</v>
       </c>
       <c r="H59" t="n">
-        <v>-225.1965227520526</v>
+        <v>-225.1960052645267</v>
       </c>
     </row>
     <row r="60">
@@ -2346,7 +2346,7 @@
         <v>-0.6024212986963042</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.6011068820953369</v>
+        <v>-0.5998528599739075</v>
       </c>
       <c r="F60" t="n">
         <v>-225.16830735</v>
@@ -2355,7 +2355,7 @@
         <v>-224.56588833</v>
       </c>
       <c r="H60" t="n">
-        <v>-225.1669952120953</v>
+        <v>-225.1657411899739</v>
       </c>
     </row>
     <row r="61">
@@ -2375,10 +2375,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-0.6038196578094888</v>
+        <v>-0.6038267256316663</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5972133874893188</v>
+        <v>-0.60575270652771</v>
       </c>
       <c r="F61" t="n">
         <v>-225.16772197</v>
@@ -2387,7 +2387,7 @@
         <v>-224.56389361</v>
       </c>
       <c r="H61" t="n">
-        <v>-225.1611069974893</v>
+        <v>-225.1696463165277</v>
       </c>
     </row>
     <row r="62">
@@ -2407,10 +2407,10 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>-0.5692138506529532</v>
+        <v>-0.5692127321223932</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5741981267929077</v>
+        <v>-0.5686129331588745</v>
       </c>
       <c r="F62" t="n">
         <v>-225.23615603</v>
@@ -2419,7 +2419,7 @@
         <v>-224.66694469</v>
       </c>
       <c r="H62" t="n">
-        <v>-225.2411428167929</v>
+        <v>-225.2355576231589</v>
       </c>
     </row>
     <row r="63">
@@ -2442,7 +2442,7 @@
         <v>-0.5790422948128731</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5756959915161133</v>
+        <v>-0.5776118040084839</v>
       </c>
       <c r="F63" t="n">
         <v>-225.2228397</v>
@@ -2451,7 +2451,7 @@
         <v>-224.64379826</v>
       </c>
       <c r="H63" t="n">
-        <v>-225.2194942515161</v>
+        <v>-225.2214100640085</v>
       </c>
     </row>
     <row r="64">
@@ -2471,10 +2471,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-0.5882323287661932</v>
+        <v>-0.5882419014445339</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.5897003412246704</v>
+        <v>-0.588107705116272</v>
       </c>
       <c r="F64" t="n">
         <v>-225.19534455</v>
@@ -2483,7 +2483,7 @@
         <v>-224.60710186</v>
       </c>
       <c r="H64" t="n">
-        <v>-225.1968022012247</v>
+        <v>-225.1952095651163</v>
       </c>
     </row>
     <row r="65">
@@ -2506,7 +2506,7 @@
         <v>-0.59687908196873</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.5977210998535156</v>
+        <v>-0.601392924785614</v>
       </c>
       <c r="F65" t="n">
         <v>-225.17648059</v>
@@ -2515,7 +2515,7 @@
         <v>-224.57960281</v>
       </c>
       <c r="H65" t="n">
-        <v>-225.1773239098535</v>
+        <v>-225.1809957347856</v>
       </c>
     </row>
     <row r="66">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>-0.5691979482243803</v>
+        <v>-0.5691966772812003</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.5710557103157043</v>
+        <v>-0.5682252645492554</v>
       </c>
       <c r="F66" t="n">
         <v>-225.23564883</v>
@@ -2547,7 +2547,7 @@
         <v>-224.66645059</v>
       </c>
       <c r="H66" t="n">
-        <v>-225.2375063003157</v>
+        <v>-225.2346758545493</v>
       </c>
     </row>
     <row r="67">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>-0.584945593998362</v>
+        <v>-0.5849583042534829</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5859348773956299</v>
+        <v>-0.5859391093254089</v>
       </c>
       <c r="F67" t="n">
         <v>-225.20680061</v>
@@ -2579,7 +2579,7 @@
         <v>-224.62184089</v>
       </c>
       <c r="H67" t="n">
-        <v>-225.2077757673956</v>
+        <v>-225.2077799993254</v>
       </c>
     </row>
     <row r="68">
@@ -2599,10 +2599,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>-0.5855719559885684</v>
+        <v>-0.5855856171303169</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5859076976776123</v>
+        <v>-0.5862316489219666</v>
       </c>
       <c r="F68" t="n">
         <v>-225.20464834</v>
@@ -2611,7 +2611,7 @@
         <v>-224.61906001</v>
       </c>
       <c r="H68" t="n">
-        <v>-225.2049677076776</v>
+        <v>-225.205291658922</v>
       </c>
     </row>
     <row r="69">
@@ -2634,7 +2634,7 @@
         <v>-0.5920982087284029</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.5939227342605591</v>
+        <v>-0.592799961566925</v>
       </c>
       <c r="F69" t="n">
         <v>-225.19113943</v>
@@ -2643,7 +2643,7 @@
         <v>-224.59904142</v>
       </c>
       <c r="H69" t="n">
-        <v>-225.1929641542606</v>
+        <v>-225.1918413815669</v>
       </c>
     </row>
     <row r="70">
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>-0.5841380115302101</v>
+        <v>-0.5841409711763426</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.5844766497612</v>
+        <v>-0.5861619710922241</v>
       </c>
       <c r="F70" t="n">
         <v>-225.20953706</v>
@@ -2675,7 +2675,7 @@
         <v>-224.62539719</v>
       </c>
       <c r="H70" t="n">
-        <v>-225.2098738397612</v>
+        <v>-225.2115591610922</v>
       </c>
     </row>
     <row r="71">
@@ -2695,10 +2695,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>-0.5827425482137035</v>
+        <v>-0.5827503611228395</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.5795755386352539</v>
+        <v>-0.5823583602905273</v>
       </c>
       <c r="F71" t="n">
         <v>-225.213914</v>
@@ -2707,7 +2707,7 @@
         <v>-224.63116377</v>
       </c>
       <c r="H71" t="n">
-        <v>-225.2107393086353</v>
+        <v>-225.2135221302905</v>
       </c>
     </row>
     <row r="72">
@@ -2727,10 +2727,10 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-0.5995457149551846</v>
+        <v>-0.5995476950128794</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.6005505919456482</v>
+        <v>-0.5991588234901428</v>
       </c>
       <c r="F72" t="n">
         <v>-225.17124142</v>
@@ -2739,7 +2739,7 @@
         <v>-224.5716957</v>
       </c>
       <c r="H72" t="n">
-        <v>-225.1722462919456</v>
+        <v>-225.1708545234901</v>
       </c>
     </row>
     <row r="73">
@@ -2762,7 +2762,7 @@
         <v>-0.5783340260548406</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.5747909545898438</v>
+        <v>-0.5741599798202515</v>
       </c>
       <c r="F73" t="n">
         <v>-225.22386256</v>
@@ -2771,7 +2771,7 @@
         <v>-224.64552641</v>
       </c>
       <c r="H73" t="n">
-        <v>-225.2203173645898</v>
+        <v>-225.2196863898203</v>
       </c>
     </row>
     <row r="74">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>-0.5691710343648841</v>
+        <v>-0.5691691699706942</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.5704739093780518</v>
+        <v>-0.5694078207015991</v>
       </c>
       <c r="F74" t="n">
         <v>-225.23398423</v>
@@ -2803,7 +2803,7 @@
         <v>-224.66481459</v>
       </c>
       <c r="H74" t="n">
-        <v>-225.235288499378</v>
+        <v>-225.2342224107016</v>
       </c>
     </row>
     <row r="75">
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-0.5823513760257548</v>
+        <v>-0.5823635537760562</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.5808533430099487</v>
+        <v>-0.5808208584785461</v>
       </c>
       <c r="F75" t="n">
         <v>-225.21505837</v>
@@ -2835,7 +2835,7 @@
         <v>-224.6326956</v>
       </c>
       <c r="H75" t="n">
-        <v>-225.21354894301</v>
+        <v>-225.2135164584786</v>
       </c>
     </row>
     <row r="76">
@@ -2855,10 +2855,10 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>-0.5691796631035254</v>
+        <v>-0.5691780049439453</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5689185857772827</v>
+        <v>-0.5689347982406616</v>
       </c>
       <c r="F76" t="n">
         <v>-225.2345621</v>
@@ -2867,7 +2867,7 @@
         <v>-224.66538507</v>
       </c>
       <c r="H76" t="n">
-        <v>-225.2343036557773</v>
+        <v>-225.2343198682407</v>
       </c>
     </row>
     <row r="77">
@@ -2887,10 +2887,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>-0.5853612636890047</v>
+        <v>-0.5853790621418135</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5851311683654785</v>
+        <v>-0.5870136022567749</v>
       </c>
       <c r="F77" t="n">
         <v>-225.20537479</v>
@@ -2899,7 +2899,7 @@
         <v>-224.61999743</v>
       </c>
       <c r="H77" t="n">
-        <v>-225.2051285983655</v>
+        <v>-225.2070110322568</v>
       </c>
     </row>
     <row r="78">
@@ -2922,7 +2922,7 @@
         <v>-0.5925930154282316</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5916759967803955</v>
+        <v>-0.5937420725822449</v>
       </c>
       <c r="F78" t="n">
         <v>-225.18946305</v>
@@ -2931,7 +2931,7 @@
         <v>-224.59687247</v>
       </c>
       <c r="H78" t="n">
-        <v>-225.1885484667804</v>
+        <v>-225.1906145425822</v>
       </c>
     </row>
     <row r="79">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-0.5691596759382713</v>
+        <v>-0.5691569853293801</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.5674204230308533</v>
+        <v>-0.5692624449729919</v>
       </c>
       <c r="F79" t="n">
         <v>-225.23211098</v>
@@ -2963,7 +2963,7 @@
         <v>-224.66295607</v>
       </c>
       <c r="H79" t="n">
-        <v>-225.2303764930309</v>
+        <v>-225.232218514973</v>
       </c>
     </row>
     <row r="80">
@@ -2983,10 +2983,10 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-0.5693044233124797</v>
+        <v>-0.5692948027386497</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5709100961685181</v>
+        <v>-0.5680477619171143</v>
       </c>
       <c r="F80" t="n">
         <v>-225.21995972</v>
@@ -2995,7 +2995,7 @@
         <v>-224.65066367</v>
       </c>
       <c r="H80" t="n">
-        <v>-225.2215737661685</v>
+        <v>-225.2187114319171</v>
       </c>
     </row>
     <row r="81">
@@ -3015,10 +3015,10 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-0.5835336544108207</v>
+        <v>-0.5835412177537063</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.581028938293457</v>
+        <v>-0.5821244120597839</v>
       </c>
       <c r="F81" t="n">
         <v>-225.21148063</v>
@@ -3027,7 +3027,7 @@
         <v>-224.62794311</v>
       </c>
       <c r="H81" t="n">
-        <v>-225.2089720482934</v>
+        <v>-225.2100675220598</v>
       </c>
     </row>
     <row r="82">
@@ -3047,10 +3047,10 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-0.5833308020843003</v>
+        <v>-0.5833384066126872</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.5809152126312256</v>
+        <v>-0.5844801068305969</v>
       </c>
       <c r="F82" t="n">
         <v>-225.21210633</v>
@@ -3059,7 +3059,7 @@
         <v>-224.62876726</v>
       </c>
       <c r="H82" t="n">
-        <v>-225.2096824726312</v>
+        <v>-225.2132473668306</v>
       </c>
     </row>
     <row r="83">
@@ -3079,10 +3079,10 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>-0.5692865781427683</v>
+        <v>-0.5692775435992683</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.570406973361969</v>
+        <v>-0.5688365697860718</v>
       </c>
       <c r="F83" t="n">
         <v>-225.22090263</v>
@@ -3091,7 +3091,7 @@
         <v>-224.65162689</v>
       </c>
       <c r="H83" t="n">
-        <v>-225.222033863362</v>
+        <v>-225.2204634597861</v>
       </c>
     </row>
     <row r="84">
@@ -3114,7 +3114,7 @@
         <v>-0.5788643733092633</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.5755264759063721</v>
+        <v>-0.5787339210510254</v>
       </c>
       <c r="F84" t="n">
         <v>-225.22312201</v>
@@ -3123,7 +3123,7 @@
         <v>-224.64425778</v>
       </c>
       <c r="H84" t="n">
-        <v>-225.2197842559064</v>
+        <v>-225.222991701051</v>
       </c>
     </row>
     <row r="85">
@@ -3143,10 +3143,10 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-0.5692499688536599</v>
+        <v>-0.5692420692655598</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.568718433380127</v>
+        <v>-0.57036292552948</v>
       </c>
       <c r="F85" t="n">
         <v>-225.22273497</v>
@@ -3155,7 +3155,7 @@
         <v>-224.65349521</v>
       </c>
       <c r="H85" t="n">
-        <v>-225.2222136433801</v>
+        <v>-225.2238581355295</v>
       </c>
     </row>
     <row r="86">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-0.5757511524538921</v>
+        <v>-0.575752671999192</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.5757369995117188</v>
+        <v>-0.5739023685455322</v>
       </c>
       <c r="F86" t="n">
         <v>-225.22492336</v>
@@ -3187,7 +3187,7 @@
         <v>-224.64916817</v>
       </c>
       <c r="H86" t="n">
-        <v>-225.2249051695117</v>
+        <v>-225.2230705385455</v>
       </c>
     </row>
     <row r="87">
@@ -3210,7 +3210,7 @@
         <v>-0.5930905235423591</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.5956552624702454</v>
+        <v>-0.5930663347244263</v>
       </c>
       <c r="F87" t="n">
         <v>-225.1877831</v>
@@ -3219,7 +3219,7 @@
         <v>-224.59469483</v>
       </c>
       <c r="H87" t="n">
-        <v>-225.1903500924703</v>
+        <v>-225.1877611647244</v>
       </c>
     </row>
     <row r="88">
@@ -3239,10 +3239,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-0.5948978336501951</v>
+        <v>-0.5948983195536068</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.5976437330245972</v>
+        <v>-0.5939688086509705</v>
       </c>
       <c r="F88" t="n">
         <v>-225.1819612</v>
@@ -3251,7 +3251,7 @@
         <v>-224.58706675</v>
       </c>
       <c r="H88" t="n">
-        <v>-225.1847104830246</v>
+        <v>-225.181035558651</v>
       </c>
     </row>
     <row r="89">
@@ -3271,10 +3271,10 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-0.6053334537837731</v>
+        <v>-0.6053377511302871</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.6026304960250854</v>
+        <v>-0.6011784076690674</v>
       </c>
       <c r="F89" t="n">
         <v>-225.1676173</v>
@@ -3283,7 +3283,7 @@
         <v>-224.56227948</v>
       </c>
       <c r="H89" t="n">
-        <v>-225.1649099760251</v>
+        <v>-225.1634578876691</v>
       </c>
     </row>
     <row r="90">
@@ -3303,10 +3303,10 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-0.5762701036136149</v>
+        <v>-0.5762649517133149</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.575939416885376</v>
+        <v>-0.5779468417167664</v>
       </c>
       <c r="F90" t="n">
         <v>-225.22509076</v>
@@ -3315,7 +3315,7 @@
         <v>-224.64882426</v>
       </c>
       <c r="H90" t="n">
-        <v>-225.2247636768854</v>
+        <v>-225.2267711017168</v>
       </c>
     </row>
     <row r="91">
@@ -3335,10 +3335,10 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-0.5981353758453372</v>
+        <v>-0.5981440249347884</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.5987710952758789</v>
+        <v>-0.5997205972671509</v>
       </c>
       <c r="F91" t="n">
         <v>-225.17367331</v>
@@ -3347,7 +3347,7 @@
         <v>-224.5755297</v>
       </c>
       <c r="H91" t="n">
-        <v>-225.1743007952759</v>
+        <v>-225.1752502972672</v>
       </c>
     </row>
     <row r="92">
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-0.5943613215396002</v>
+        <v>-0.594363233758695</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.5954536199569702</v>
+        <v>-0.5923408269882202</v>
       </c>
       <c r="F92" t="n">
         <v>-225.18360578</v>
@@ -3379,7 +3379,7 @@
         <v>-224.58924046</v>
       </c>
       <c r="H92" t="n">
-        <v>-225.184694079957</v>
+        <v>-225.1815812869882</v>
       </c>
     </row>
     <row r="93">
@@ -3402,7 +3402,7 @@
         <v>-0.5781606157088359</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.5751413106918335</v>
+        <v>-0.5762098431587219</v>
       </c>
       <c r="F93" t="n">
         <v>-225.224073</v>
@@ -3411,7 +3411,7 @@
         <v>-224.64591165</v>
       </c>
       <c r="H93" t="n">
-        <v>-225.2210529606918</v>
+        <v>-225.2221214931587</v>
       </c>
     </row>
     <row r="94">
@@ -3434,7 +3434,7 @@
         <v>-0.5772942431707921</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.5793846845626831</v>
+        <v>-0.5768142342567444</v>
       </c>
       <c r="F94" t="n">
         <v>-225.22483953</v>
@@ -3443,7 +3443,7 @@
         <v>-224.64754494</v>
       </c>
       <c r="H94" t="n">
-        <v>-225.2269296245627</v>
+        <v>-225.2243591742567</v>
       </c>
     </row>
     <row r="95">
@@ -3463,10 +3463,10 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>-0.6058531742300118</v>
+        <v>-0.6058566160611381</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.605133593082428</v>
+        <v>-0.6044425964355469</v>
       </c>
       <c r="F95" t="n">
         <v>-225.16769584</v>
@@ -3475,7 +3475,7 @@
         <v>-224.56183522</v>
       </c>
       <c r="H95" t="n">
-        <v>-225.1669688130824</v>
+        <v>-225.1662778164356</v>
       </c>
     </row>
     <row r="96">
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>-0.575409207604054</v>
+        <v>-0.575415386271684</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.5714782476425171</v>
+        <v>-0.5716493725776672</v>
       </c>
       <c r="F96" t="n">
         <v>-225.2246978</v>
@@ -3507,7 +3507,7 @@
         <v>-224.64928259</v>
       </c>
       <c r="H96" t="n">
-        <v>-225.2207608376425</v>
+        <v>-225.2209319625777</v>
       </c>
     </row>
     <row r="97">
@@ -3527,10 +3527,10 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-0.5693050726435437</v>
+        <v>-0.5693043526421137</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.5706968903541565</v>
+        <v>-0.5661572217941284</v>
       </c>
       <c r="F97" t="n">
         <v>-225.23831157</v>
@@ -3539,7 +3539,7 @@
         <v>-224.66900787</v>
       </c>
       <c r="H97" t="n">
-        <v>-225.2397047603542</v>
+        <v>-225.2351650917941</v>
       </c>
     </row>
     <row r="98">
@@ -3562,7 +3562,7 @@
         <v>-0.5776400930470225</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.5776810646057129</v>
+        <v>-0.5785359740257263</v>
       </c>
       <c r="F98" t="n">
         <v>-225.22459123</v>
@@ -3571,7 +3571,7 @@
         <v>-224.64695135</v>
       </c>
       <c r="H98" t="n">
-        <v>-225.2246324146057</v>
+        <v>-225.2254873240257</v>
       </c>
     </row>
     <row r="99">
@@ -3594,7 +3594,7 @@
         <v>-0.5799397235980557</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.5795068740844727</v>
+        <v>-0.5809485912322998</v>
       </c>
       <c r="F99" t="n">
         <v>-225.22117441</v>
@@ -3603,7 +3603,7 @@
         <v>-224.64123659</v>
       </c>
       <c r="H99" t="n">
-        <v>-225.2207434640845</v>
+        <v>-225.2221851812323</v>
       </c>
     </row>
     <row r="100">
@@ -3626,7 +3626,7 @@
         <v>-0.590884679485705</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.5923193693161011</v>
+        <v>-0.5936750173568726</v>
       </c>
       <c r="F100" t="n">
         <v>-225.19528659</v>
@@ -3635,7 +3635,7 @@
         <v>-224.6044046</v>
       </c>
       <c r="H100" t="n">
-        <v>-225.1967239693161</v>
+        <v>-225.1980796173569</v>
       </c>
     </row>
     <row r="101">
@@ -3658,7 +3658,7 @@
         <v>-0.5797556935462922</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.5783524513244629</v>
+        <v>-0.5820003747940063</v>
       </c>
       <c r="F101" t="n">
         <v>-225.2215405</v>
@@ -3667,7 +3667,7 @@
         <v>-224.64178348</v>
       </c>
       <c r="H101" t="n">
-        <v>-225.2201359313244</v>
+        <v>-225.223783854794</v>
       </c>
     </row>
     <row r="102">
@@ -3690,7 +3690,7 @@
         <v>-0.6015399170494817</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.6012100577354431</v>
+        <v>-0.60369873046875</v>
       </c>
       <c r="F102" t="n">
         <v>-225.16893978</v>
@@ -3699,7 +3699,7 @@
         <v>-224.56740104</v>
       </c>
       <c r="H102" t="n">
-        <v>-225.1686110977354</v>
+        <v>-225.1710997704687</v>
       </c>
     </row>
     <row r="103">
@@ -3719,10 +3719,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-0.5938547080174978</v>
+        <v>-0.5938474762882884</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.5977166891098022</v>
+        <v>-0.5933446288108826</v>
       </c>
       <c r="F103" t="n">
         <v>-225.18526903</v>
@@ -3731,7 +3731,7 @@
         <v>-224.5914213</v>
       </c>
       <c r="H103" t="n">
-        <v>-225.1891379891098</v>
+        <v>-225.1847659288109</v>
       </c>
     </row>
     <row r="104">
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-0.5936032165018605</v>
+        <v>-0.5935940353273326</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.5974018573760986</v>
+        <v>-0.5947972536087036</v>
       </c>
       <c r="F104" t="n">
         <v>-225.18610511</v>
@@ -3763,7 +3763,7 @@
         <v>-224.59251258</v>
       </c>
       <c r="H104" t="n">
-        <v>-225.1899144373761</v>
+        <v>-225.1873098336087</v>
       </c>
     </row>
     <row r="105">
@@ -3783,10 +3783,10 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>-0.5884628474873789</v>
+        <v>-0.5884725507700135</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.5915472507476807</v>
+        <v>-0.5909147262573242</v>
       </c>
       <c r="F105" t="n">
         <v>-225.19453006</v>
@@ -3795,7 +3795,7 @@
         <v>-224.60605419</v>
       </c>
       <c r="H105" t="n">
-        <v>-225.1976014407477</v>
+        <v>-225.1969689162573</v>
       </c>
     </row>
     <row r="106">
@@ -3815,10 +3815,10 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>-0.5877743329819227</v>
+        <v>-0.5877836555708169</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.5898293852806091</v>
+        <v>-0.5908554792404175</v>
       </c>
       <c r="F106" t="n">
         <v>-225.19695878</v>
@@ -3827,7 +3827,7 @@
         <v>-224.6091764</v>
       </c>
       <c r="H106" t="n">
-        <v>-225.1990057852806</v>
+        <v>-225.2000318792404</v>
       </c>
     </row>
     <row r="107">
@@ -3850,7 +3850,7 @@
         <v>-0.5795753153347261</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.5802798271179199</v>
+        <v>-0.5846370458602905</v>
       </c>
       <c r="F107" t="n">
         <v>-225.22189018</v>
@@ -3859,7 +3859,7 @@
         <v>-224.64231307</v>
       </c>
       <c r="H107" t="n">
-        <v>-225.2225928971179</v>
+        <v>-225.2269501158603</v>
       </c>
     </row>
     <row r="108">
@@ -3879,10 +3879,10 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>-0.5693286548815744</v>
+        <v>-0.5693279488097344</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.5690615177154541</v>
+        <v>-0.5700128078460693</v>
       </c>
       <c r="F108" t="n">
         <v>-225.23866305</v>
@@ -3891,7 +3891,7 @@
         <v>-224.66933533</v>
       </c>
       <c r="H108" t="n">
-        <v>-225.2383968477154</v>
+        <v>-225.2393481378461</v>
       </c>
     </row>
     <row r="109">
@@ -3911,10 +3911,10 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-0.6048156118993544</v>
+        <v>-0.6048207994489536</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.6015017032623291</v>
+        <v>-0.6055173873901367</v>
       </c>
       <c r="F109" t="n">
         <v>-225.16759573</v>
@@ -3923,7 +3923,7 @@
         <v>-224.56277204</v>
       </c>
       <c r="H109" t="n">
-        <v>-225.1642737432623</v>
+        <v>-225.1682894273901</v>
       </c>
     </row>
     <row r="110">
@@ -3943,10 +3943,10 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-0.5864381870671338</v>
+        <v>-0.5864466755169582</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.5839114189147949</v>
+        <v>-0.5863552689552307</v>
       </c>
       <c r="F110" t="n">
         <v>-225.2016595</v>
@@ -3955,7 +3955,7 @@
         <v>-224.61521305</v>
       </c>
       <c r="H110" t="n">
-        <v>-225.1991244689148</v>
+        <v>-225.2015683189552</v>
       </c>
     </row>
     <row r="111">
@@ -3975,10 +3975,10 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>-0.5752347000990903</v>
+        <v>-0.5752432591012403</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.570156455039978</v>
+        <v>-0.5722296237945557</v>
       </c>
       <c r="F111" t="n">
         <v>-225.22454941</v>
@@ -3987,7 +3987,7 @@
         <v>-224.64930455</v>
       </c>
       <c r="H111" t="n">
-        <v>-225.21946100504</v>
+        <v>-225.2215341737946</v>
       </c>
     </row>
     <row r="112">
@@ -4010,7 +4010,7 @@
         <v>-0.5965793010924829</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.5974176526069641</v>
+        <v>-0.6009519100189209</v>
       </c>
       <c r="F112" t="n">
         <v>-225.17722694</v>
@@ -4019,7 +4019,7 @@
         <v>-224.58064835</v>
       </c>
       <c r="H112" t="n">
-        <v>-225.178066002607</v>
+        <v>-225.1816002600189</v>
       </c>
     </row>
     <row r="113">
@@ -4042,7 +4042,7 @@
         <v>-0.5767780831683798</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.5765069127082825</v>
+        <v>-0.5780864953994751</v>
       </c>
       <c r="F113" t="n">
         <v>-225.22505996</v>
@@ -4051,7 +4051,7 @@
         <v>-224.64828071</v>
       </c>
       <c r="H113" t="n">
-        <v>-225.2247876227083</v>
+        <v>-225.2263672053995</v>
       </c>
     </row>
     <row r="114">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>-0.5810294840037746</v>
+        <v>-0.5810389915388245</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.5809028148651123</v>
+        <v>-0.5808382630348206</v>
       </c>
       <c r="F114" t="n">
         <v>-225.21865175</v>
@@ -4083,7 +4083,7 @@
         <v>-224.63761398</v>
       </c>
       <c r="H114" t="n">
-        <v>-225.2185167948651</v>
+        <v>-225.2184522430348</v>
       </c>
     </row>
     <row r="115">
@@ -4103,10 +4103,10 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>-0.6033379644607961</v>
+        <v>-0.603346030714331</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.598294734954834</v>
+        <v>-0.6010458469390869</v>
       </c>
       <c r="F115" t="n">
         <v>-225.16786605</v>
@@ -4115,7 +4115,7 @@
         <v>-224.56451904</v>
       </c>
       <c r="H115" t="n">
-        <v>-225.1628137749548</v>
+        <v>-225.1655648869391</v>
       </c>
     </row>
     <row r="116">
@@ -4135,10 +4135,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>-0.5692655842201224</v>
+        <v>-0.5692647704069524</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.5690945386886597</v>
+        <v>-0.5700748562812805</v>
       </c>
       <c r="F116" t="n">
         <v>-225.23752762</v>
@@ -4147,7 +4147,7 @@
         <v>-224.66826611</v>
       </c>
       <c r="H116" t="n">
-        <v>-225.2373606486887</v>
+        <v>-225.2383409662813</v>
       </c>
     </row>
     <row r="117">
@@ -4167,10 +4167,10 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-0.5691752644741399</v>
+        <v>-0.5691703278197398</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.5699098110198975</v>
+        <v>-0.5706972479820251</v>
       </c>
       <c r="F117" t="n">
         <v>-225.22778289</v>
@@ -4179,7 +4179,7 @@
         <v>-224.65861372</v>
       </c>
       <c r="H117" t="n">
-        <v>-225.2285235310199</v>
+        <v>-225.229310967982</v>
       </c>
     </row>
     <row r="118">
@@ -4199,10 +4199,10 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-0.5808419788180266</v>
+        <v>-0.580851797214907</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.5808295607566833</v>
+        <v>-0.5795928239822388</v>
       </c>
       <c r="F118" t="n">
         <v>-225.21911069</v>
@@ -4211,7 +4211,7 @@
         <v>-224.63825738</v>
       </c>
       <c r="H118" t="n">
-        <v>-225.2190869407567</v>
+        <v>-225.2178502039822</v>
       </c>
     </row>
     <row r="119">
@@ -4231,10 +4231,10 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>-0.5845401767441945</v>
+        <v>-0.5845478780655449</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.5842711329460144</v>
+        <v>-0.5851781368255615</v>
       </c>
       <c r="F119" t="n">
         <v>-225.20818887</v>
@@ -4243,7 +4243,7 @@
         <v>-224.62364154</v>
       </c>
       <c r="H119" t="n">
-        <v>-225.207912672946</v>
+        <v>-225.2088196768256</v>
       </c>
     </row>
     <row r="120">
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-0.5692817851253693</v>
+        <v>-0.5692810333978493</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.570167064666748</v>
+        <v>-0.5670709609985352</v>
       </c>
       <c r="F120" t="n">
         <v>-225.23793272</v>
@@ -4275,7 +4275,7 @@
         <v>-224.66865114</v>
       </c>
       <c r="H120" t="n">
-        <v>-225.2388182046668</v>
+        <v>-225.2357221009985</v>
       </c>
     </row>
     <row r="121">
@@ -4298,7 +4298,7 @@
         <v>-0.5793974489789194</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.5780999660491943</v>
+        <v>-0.5845980644226074</v>
       </c>
       <c r="F121" t="n">
         <v>-225.22222358</v>
@@ -4307,7 +4307,7 @@
         <v>-224.64282578</v>
       </c>
       <c r="H121" t="n">
-        <v>-225.2209257460492</v>
+        <v>-225.2274238444226</v>
       </c>
     </row>
     <row r="122">
@@ -4327,10 +4327,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>-0.5692301658254102</v>
+        <v>-0.5692227924653304</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.5707056522369385</v>
+        <v>-0.569334089756012</v>
       </c>
       <c r="F122" t="n">
         <v>-225.22362377</v>
@@ -4339,7 +4339,7 @@
         <v>-224.65439966</v>
       </c>
       <c r="H122" t="n">
-        <v>-225.2251053122369</v>
+        <v>-225.223733749756</v>
       </c>
     </row>
     <row r="123">
@@ -4359,10 +4359,10 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>-0.5692176405743277</v>
+        <v>-0.5692108019794276</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.5708399415016174</v>
+        <v>-0.5705536603927612</v>
       </c>
       <c r="F123" t="n">
         <v>-225.22449393</v>
@@ -4371,7 +4371,7 @@
         <v>-224.65528393</v>
       </c>
       <c r="H123" t="n">
-        <v>-225.2261238715016</v>
+        <v>-225.2258375903928</v>
       </c>
     </row>
     <row r="124">
@@ -4391,10 +4391,10 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>-0.5692435695988929</v>
+        <v>-0.5692426834200729</v>
       </c>
       <c r="E124" t="n">
-        <v>-0.5728538036346436</v>
+        <v>-0.5719861388206482</v>
       </c>
       <c r="F124" t="n">
         <v>-225.23709575</v>
@@ -4403,7 +4403,7 @@
         <v>-224.66785279</v>
       </c>
       <c r="H124" t="n">
-        <v>-225.2407065936347</v>
+        <v>-225.2398389288207</v>
       </c>
     </row>
     <row r="125">
@@ -4423,10 +4423,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-0.5843344221288113</v>
+        <v>-0.5843397991124343</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.5856322050094604</v>
+        <v>-0.5858302116394043</v>
       </c>
       <c r="F125" t="n">
         <v>-225.20886804</v>
@@ -4435,7 +4435,7 @@
         <v>-224.62452508</v>
       </c>
       <c r="H125" t="n">
-        <v>-225.2101572850095</v>
+        <v>-225.2103552916394</v>
       </c>
     </row>
     <row r="126">
@@ -4455,10 +4455,10 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>-0.5940996469409503</v>
+        <v>-0.5941023158332339</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.5951803922653198</v>
+        <v>-0.5929337739944458</v>
       </c>
       <c r="F126" t="n">
         <v>-225.18443556</v>
@@ -4467,7 +4467,7 @@
         <v>-224.59033034</v>
       </c>
       <c r="H126" t="n">
-        <v>-225.1855107322653</v>
+        <v>-225.1832641139945</v>
       </c>
     </row>
     <row r="127">
@@ -4487,10 +4487,10 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-0.5847436714011222</v>
+        <v>-0.5847538187552397</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.5864465236663818</v>
+        <v>-0.5864019989967346</v>
       </c>
       <c r="F127" t="n">
         <v>-225.20749944</v>
@@ -4499,7 +4499,7 @@
         <v>-224.62274658</v>
       </c>
       <c r="H127" t="n">
-        <v>-225.2091931036664</v>
+        <v>-225.2091485789967</v>
       </c>
     </row>
     <row r="128">
@@ -4522,7 +4522,7 @@
         <v>-0.5792191901356969</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.5792019367218018</v>
+        <v>-0.5786071419715881</v>
       </c>
       <c r="F128" t="n">
         <v>-225.22254012</v>
@@ -4531,7 +4531,7 @@
         <v>-224.64332085</v>
       </c>
       <c r="H128" t="n">
-        <v>-225.2225227867218</v>
+        <v>-225.2219279919716</v>
       </c>
     </row>
     <row r="129">
@@ -4551,10 +4551,10 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-0.5873205181125747</v>
+        <v>-0.5873295560638132</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.5875086784362793</v>
+        <v>-0.5873475670814514</v>
       </c>
       <c r="F129" t="n">
         <v>-225.19855127</v>
@@ -4563,7 +4563,7 @@
         <v>-224.61122144</v>
       </c>
       <c r="H129" t="n">
-        <v>-225.1987301184363</v>
+        <v>-225.1985690070815</v>
       </c>
     </row>
     <row r="130">
@@ -4583,10 +4583,10 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>-0.5999223389462383</v>
+        <v>-0.5999222405033124</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.6006142497062683</v>
+        <v>-0.5980276465415955</v>
       </c>
       <c r="F130" t="n">
         <v>-225.17070789</v>
@@ -4595,7 +4595,7 @@
         <v>-224.57078638</v>
       </c>
       <c r="H130" t="n">
-        <v>-225.1714006297063</v>
+        <v>-225.1688140265416</v>
       </c>
     </row>
     <row r="131">
@@ -4618,7 +4618,7 @@
         <v>-0.592346117727603</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.5924046039581299</v>
+        <v>-0.5934816598892212</v>
       </c>
       <c r="F131" t="n">
         <v>-225.19030221</v>
@@ -4627,7 +4627,7 @@
         <v>-224.5979584</v>
       </c>
       <c r="H131" t="n">
-        <v>-225.1903630039581</v>
+        <v>-225.1914400598892</v>
       </c>
     </row>
     <row r="132">
@@ -4650,7 +4650,7 @@
         <v>-0.5962837916649115</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.5975583791732788</v>
+        <v>-0.5952396988868713</v>
       </c>
       <c r="F132" t="n">
         <v>-225.17798804</v>
@@ -4659,7 +4659,7 @@
         <v>-224.58170235</v>
       </c>
       <c r="H132" t="n">
-        <v>-225.1792607291733</v>
+        <v>-225.1769420488869</v>
       </c>
     </row>
     <row r="133">
@@ -4679,10 +4679,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-0.5692237042854923</v>
+        <v>-0.5692227096252824</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.5737935304641724</v>
+        <v>-0.5689347386360168</v>
       </c>
       <c r="F133" t="n">
         <v>-225.23663829</v>
@@ -4691,7 +4691,7 @@
         <v>-224.66741211</v>
       </c>
       <c r="H133" t="n">
-        <v>-225.2412056404642</v>
+        <v>-225.236346848636</v>
       </c>
     </row>
     <row r="134">
@@ -4711,10 +4711,10 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-0.5755821185421347</v>
+        <v>-0.5755859509513347</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.5714691877365112</v>
+        <v>-0.5707488059997559</v>
       </c>
       <c r="F134" t="n">
         <v>-225.22482256</v>
@@ -4723,7 +4723,7 @@
         <v>-224.64923706</v>
       </c>
       <c r="H134" t="n">
-        <v>-225.2207062477365</v>
+        <v>-225.2199858659997</v>
       </c>
     </row>
     <row r="135">
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>-0.6003083441207137</v>
+        <v>-0.6003059861074098</v>
       </c>
       <c r="E135" t="n">
-        <v>-0.6002950668334961</v>
+        <v>-0.6031792759895325</v>
       </c>
       <c r="F135" t="n">
         <v>-225.17020862</v>
@@ -4755,7 +4755,7 @@
         <v>-224.56990027</v>
       </c>
       <c r="H135" t="n">
-        <v>-225.1701953368335</v>
+        <v>-225.1730795459895</v>
       </c>
     </row>
     <row r="136">
@@ -4775,10 +4775,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>-0.5817833597028366</v>
+        <v>-0.5817919119493141</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.5847269892692566</v>
+        <v>-0.5817538499832153</v>
       </c>
       <c r="F136" t="n">
         <v>-225.21667949</v>
@@ -4787,7 +4787,7 @@
         <v>-224.6348901</v>
       </c>
       <c r="H136" t="n">
-        <v>-225.2196170892693</v>
+        <v>-225.2166439499832</v>
       </c>
     </row>
     <row r="137">
@@ -4810,7 +4810,7 @@
         <v>-0.5803022272327871</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.5790833234786987</v>
+        <v>-0.5809347033500671</v>
       </c>
       <c r="F137" t="n">
         <v>-225.22039492</v>
@@ -4819,7 +4819,7 @@
         <v>-224.64009335</v>
       </c>
       <c r="H137" t="n">
-        <v>-225.2191766734787</v>
+        <v>-225.2210280533501</v>
       </c>
     </row>
     <row r="138">
@@ -4839,10 +4839,10 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>-0.5691596432944723</v>
+        <v>-0.5691559211497105</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.5696760416030884</v>
+        <v>-0.5680943131446838</v>
       </c>
       <c r="F138" t="n">
         <v>-225.23004124</v>
@@ -4851,7 +4851,7 @@
         <v>-224.66088602</v>
       </c>
       <c r="H138" t="n">
-        <v>-225.2305620616031</v>
+        <v>-225.2289803331447</v>
       </c>
     </row>
     <row r="139">
@@ -4871,10 +4871,10 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>-0.6074824292188599</v>
+        <v>-0.6074835764462948</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.6034291386604309</v>
+        <v>-0.5978084802627563</v>
       </c>
       <c r="F139" t="n">
         <v>-225.16829242</v>
@@ -4883,7 +4883,7 @@
         <v>-224.56080681</v>
       </c>
       <c r="H139" t="n">
-        <v>-225.1642359486604</v>
+        <v>-225.1586152902628</v>
       </c>
     </row>
     <row r="140">
@@ -4903,10 +4903,10 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>-0.5857929994508178</v>
+        <v>-0.5858006998622667</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.584505021572113</v>
+        <v>-0.5863746404647827</v>
       </c>
       <c r="F140" t="n">
         <v>-225.2039134</v>
@@ -4915,7 +4915,7 @@
         <v>-224.61811274</v>
       </c>
       <c r="H140" t="n">
-        <v>-225.2026177615721</v>
+        <v>-225.2044873804648</v>
       </c>
     </row>
     <row r="141">
@@ -4938,7 +4938,7 @@
         <v>-0.5804835531247693</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.5788593292236328</v>
+        <v>-0.5812734961509705</v>
       </c>
       <c r="F141" t="n">
         <v>-225.21998191</v>
@@ -4947,7 +4947,7 @@
         <v>-224.63949726</v>
       </c>
       <c r="H141" t="n">
-        <v>-225.2183565892236</v>
+        <v>-225.220770756151</v>
       </c>
     </row>
     <row r="142">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>-0.6011237217182631</v>
+        <v>-0.6011162520211943</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.6013227105140686</v>
+        <v>-0.6030888557434082</v>
       </c>
       <c r="F142" t="n">
         <v>-225.16932227</v>
@@ -4979,7 +4979,7 @@
         <v>-224.56820566</v>
       </c>
       <c r="H142" t="n">
-        <v>-225.1695283705141</v>
+        <v>-225.1712945157434</v>
       </c>
     </row>
     <row r="143">
@@ -5002,7 +5002,7 @@
         <v>-0.5771226585063705</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.5794304609298706</v>
+        <v>-0.5758873224258423</v>
       </c>
       <c r="F143" t="n">
         <v>-225.22493362</v>
@@ -5011,7 +5011,7 @@
         <v>-224.64781115</v>
       </c>
       <c r="H143" t="n">
-        <v>-225.2272416109299</v>
+        <v>-225.2236984724258</v>
       </c>
     </row>
     <row r="144">
@@ -5031,10 +5031,10 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-0.5692033845553699</v>
+        <v>-0.5691970533793699</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.571661651134491</v>
+        <v>-0.5686379671096802</v>
       </c>
       <c r="F144" t="n">
         <v>-225.22534496</v>
@@ -5043,7 +5043,7 @@
         <v>-224.65614746</v>
       </c>
       <c r="H144" t="n">
-        <v>-225.2278091111345</v>
+        <v>-225.2247854271097</v>
       </c>
     </row>
     <row r="145">
@@ -5066,7 +5066,7 @@
         <v>-0.5779880030884077</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.5767265558242798</v>
+        <v>-0.5771444439888</v>
       </c>
       <c r="F145" t="n">
         <v>-225.22426491</v>
@@ -5075,7 +5075,7 @@
         <v>-224.64627792</v>
       </c>
       <c r="H145" t="n">
-        <v>-225.2230044758243</v>
+        <v>-225.2234223639888</v>
       </c>
     </row>
     <row r="146">
@@ -5098,7 +5098,7 @@
         <v>-0.5957162105840506</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.597057044506073</v>
+        <v>-0.5929051637649536</v>
       </c>
       <c r="F146" t="n">
         <v>-225.17954793</v>
@@ -5107,7 +5107,7 @@
         <v>-224.58383218</v>
       </c>
       <c r="H146" t="n">
-        <v>-225.1808892245061</v>
+        <v>-225.176737343765</v>
       </c>
     </row>
     <row r="147">
@@ -5127,10 +5127,10 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-0.5691594791713925</v>
+        <v>-0.569156470283108</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.5680903196334839</v>
+        <v>-0.5666272640228271</v>
       </c>
       <c r="F147" t="n">
         <v>-225.23144293</v>
@@ -5139,7 +5139,7 @@
         <v>-224.66228927</v>
       </c>
       <c r="H147" t="n">
-        <v>-225.2303795896335</v>
+        <v>-225.2289165340228</v>
       </c>
     </row>
     <row r="148">
@@ -5159,10 +5159,10 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-0.575926903772401</v>
+        <v>-0.575926148618501</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.5760441422462463</v>
+        <v>-0.5762606263160706</v>
       </c>
       <c r="F148" t="n">
         <v>-225.22500174</v>
@@ -5171,7 +5171,7 @@
         <v>-224.64907626</v>
       </c>
       <c r="H148" t="n">
-        <v>-225.2251204022462</v>
+        <v>-225.2253368863161</v>
       </c>
     </row>
     <row r="149">
@@ -5191,10 +5191,10 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>-0.5693535062107011</v>
+        <v>-0.569352762112483</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.5694152116775513</v>
+        <v>-0.5683096647262573</v>
       </c>
       <c r="F149" t="n">
         <v>-225.23898705</v>
@@ -5203,7 +5203,7 @@
         <v>-224.66963371</v>
       </c>
       <c r="H149" t="n">
-        <v>-225.2390489216776</v>
+        <v>-225.2379433747263</v>
       </c>
     </row>
     <row r="150">
@@ -5223,10 +5223,10 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-0.5760989172383238</v>
+        <v>-0.5760959416601239</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.5804921984672546</v>
+        <v>-0.5787808895111084</v>
       </c>
       <c r="F150" t="n">
         <v>-225.22505749</v>
@@ -5235,7 +5235,7 @@
         <v>-224.64896159</v>
       </c>
       <c r="H150" t="n">
-        <v>-225.2294537884673</v>
+        <v>-225.2277424795111</v>
       </c>
     </row>
     <row r="151">
@@ -5255,10 +5255,10 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>-0.5851545809778465</v>
+        <v>-0.5851697513565155</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.5853406190872192</v>
+        <v>-0.5865697860717773</v>
       </c>
       <c r="F151" t="n">
         <v>-225.20609239</v>
@@ -5267,7 +5267,7 @@
         <v>-224.62092439</v>
       </c>
       <c r="H151" t="n">
-        <v>-225.2062650090872</v>
+        <v>-225.2074941760718</v>
       </c>
     </row>
     <row r="152">
@@ -5287,10 +5287,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-0.5815912284575482</v>
+        <v>-0.5816033750695434</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.5840403437614441</v>
+        <v>-0.5788992643356323</v>
       </c>
       <c r="F152" t="n">
         <v>-225.2171934</v>
@@ -5299,7 +5299,7 @@
         <v>-224.63559336</v>
       </c>
       <c r="H152" t="n">
-        <v>-225.2196337037614</v>
+        <v>-225.2144926243356</v>
       </c>
     </row>
     <row r="153">
@@ -5319,10 +5319,10 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>-0.5692656549810957</v>
+        <v>-0.5692571914770956</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.5729079246520996</v>
+        <v>-0.5742683410644531</v>
       </c>
       <c r="F153" t="n">
         <v>-225.22182788</v>
@@ -5331,7 +5331,7 @@
         <v>-224.65257094</v>
       </c>
       <c r="H153" t="n">
-        <v>-225.2254788646521</v>
+        <v>-225.2268392810645</v>
       </c>
     </row>
   </sheetData>
